--- a/Lifetime_SRH_X.xlsx
+++ b/Lifetime_SRH_X.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,3096 +468,1968 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>-1.0846e-03</t>
+          <t>5.9776e+03</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>9.4878e-01</t>
+          <t>8.2462e-01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>-1.3555e-03</t>
+          <t>5.7281e+03</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>9.4324e-01</t>
+          <t>8.1825e-01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>-1.6867e-03</t>
+          <t>5.5698e+03</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>9.3766e-01</t>
+          <t>8.1185e-01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>-2.0707e-03</t>
+          <t>5.3662e+03</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>9.3205e-01</t>
+          <t>8.0543e-01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>-2.5436e-03</t>
+          <t>5.1406e+03</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>9.2643e-01</t>
+          <t>7.9893e-01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>-3.1378e-03</t>
+          <t>5.0195e+03</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>9.2077e-01</t>
+          <t>7.9239e-01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>-3.9325e-03</t>
+          <t>4.9878e+03</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>9.1507e-01</t>
+          <t>7.8582e-01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>-4.8748e-03</t>
+          <t>4.9519e+03</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>9.0931e-01</t>
+          <t>7.7928e-01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>-6.0819e-03</t>
+          <t>4.7600e+03</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>9.0358e-01</t>
+          <t>7.7270e-01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>-8.2978e-03</t>
+          <t>4.7126e+03</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>8.9776e-01</t>
+          <t>7.6600e-01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>-1.1329e-02</t>
+          <t>4.6728e+03</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>8.9188e-01</t>
+          <t>7.5941e-01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>-1.6874e-02</t>
+          <t>4.5576e+03</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>8.8599e-01</t>
+          <t>7.5267e-01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>-3.1397e-02</t>
+          <t>4.6122e+03</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>8.8002e-01</t>
+          <t>7.4598e-01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>-7.4705e-02</t>
+          <t>4.4681e+03</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>8.7402e-01</t>
+          <t>7.3932e-01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>1.5064e-01</t>
+          <t>4.2951e+03</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>8.6803e-01</t>
+          <t>7.3247e-01</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>3.8038e-02</t>
+          <t>4.3083e+03</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>8.6193e-01</t>
+          <t>7.2561e-01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2.3785e-02</t>
+          <t>4.2467e+03</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>8.5583e-01</t>
+          <t>7.1880e-01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>1.7271e-02</t>
+          <t>4.1786e+03</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>8.4965e-01</t>
+          <t>7.1186e-01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>1.5038e-02</t>
+          <t>4.2581e+03</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>8.4345e-01</t>
+          <t>7.0497e-01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>1.2428e-02</t>
+          <t>4.2732e+03</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>8.3726e-01</t>
+          <t>6.9816e-01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>1.0546e-02</t>
+          <t>4.0963e+03</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>8.3094e-01</t>
+          <t>6.9131e-01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>9.7618e-03</t>
+          <t>3.9994e+03</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>8.2462e-01</t>
+          <t>6.8424e-01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>8.9286e-03</t>
+          <t>4.0692e+03</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>8.1825e-01</t>
+          <t>6.7727e-01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>8.3970e-03</t>
+          <t>4.1183e+03</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>8.1185e-01</t>
+          <t>6.7033e-01</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>7.8188e-03</t>
+          <t>3.9863e+03</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>8.0543e-01</t>
+          <t>6.6345e-01</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>7.2484e-03</t>
+          <t>3.8532e+03</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>7.9893e-01</t>
+          <t>6.5630e-01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>6.9232e-03</t>
+          <t>4.0443e+03</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>7.9239e-01</t>
+          <t>6.4922e-01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>6.7850e-03</t>
+          <t>4.0151e+03</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>7.8582e-01</t>
+          <t>6.4245e-01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>6.6484e-03</t>
+          <t>3.8305e+03</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>7.7928e-01</t>
+          <t>6.3532e-01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>6.2483e-03</t>
+          <t>3.8705e+03</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>7.7270e-01</t>
+          <t>6.2826e-01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>6.1128e-03</t>
+          <t>3.9067e+03</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>7.6600e-01</t>
+          <t>6.2123e-01</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>5.9977e-03</t>
+          <t>3.9219e+03</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>7.5941e-01</t>
+          <t>6.1427e-01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>5.7660e-03</t>
+          <t>3.8884e+03</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>7.5267e-01</t>
+          <t>6.0730e-01</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>5.8126e-03</t>
+          <t>3.8360e+03</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>7.4598e-01</t>
+          <t>6.0031e-01</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>5.5500e-03</t>
+          <t>3.7654e+03</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>7.3932e-01</t>
+          <t>5.9328e-01</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>5.2546e-03</t>
+          <t>3.6122e+03</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>7.3247e-01</t>
+          <t>5.8619e-01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>5.2450e-03</t>
+          <t>3.6263e+03</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>7.2561e-01</t>
+          <t>5.7887e-01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>5.1275e-03</t>
+          <t>3.8367e+03</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>7.1880e-01</t>
+          <t>5.7187e-01</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>5.0040e-03</t>
+          <t>3.6927e+03</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>7.1186e-01</t>
+          <t>5.6504e-01</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>5.0944e-03</t>
+          <t>3.4284e+03</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>7.0497e-01</t>
+          <t>5.5778e-01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>5.0933e-03</t>
+          <t>3.4900e+03</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>6.9816e-01</t>
+          <t>5.5039e-01</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>4.8245e-03</t>
+          <t>3.6296e+03</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>6.9131e-01</t>
+          <t>5.4335e-01</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>4.6725e-03</t>
+          <t>3.6533e+03</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>6.8424e-01</t>
+          <t>5.3634e-01</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>4.7504e-03</t>
+          <t>3.5926e+03</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>6.7727e-01</t>
+          <t>5.2942e-01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>4.8003e-03</t>
+          <t>3.4368e+03</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>6.7033e-01</t>
+          <t>5.2233e-01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>4.6069e-03</t>
+          <t>3.4566e+03</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>6.6345e-01</t>
+          <t>5.1510e-01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>4.4163e-03</t>
+          <t>3.6445e+03</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>6.5630e-01</t>
+          <t>5.0814e-01</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>4.6547e-03</t>
+          <t>3.6472e+03</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>6.4922e-01</t>
+          <t>5.0143e-01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>4.6030e-03</t>
+          <t>3.4783e+03</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>6.4245e-01</t>
+          <t>4.9455e-01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>4.3502e-03</t>
+          <t>3.4444e+03</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>6.3532e-01</t>
+          <t>4.8751e-01</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>4.3905e-03</t>
+          <t>3.4805e+03</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>6.2826e-01</t>
+          <t>4.8063e-01</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>4.4258e-03</t>
+          <t>3.4653e+03</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>6.2123e-01</t>
+          <t>4.7377e-01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>4.4347e-03</t>
+          <t>3.4650e+03</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>6.1427e-01</t>
+          <t>4.6694e-01</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>4.3819e-03</t>
+          <t>3.3892e+03</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>6.0730e-01</t>
+          <t>4.6017e-01</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>4.3060e-03</t>
+          <t>3.3310e+03</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>6.0031e-01</t>
+          <t>4.5323e-01</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>4.2086e-03</t>
+          <t>3.4127e+03</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>5.9328e-01</t>
+          <t>4.4641e-01</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>4.0103e-03</t>
+          <t>3.4255e+03</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>5.8619e-01</t>
+          <t>4.3979e-01</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>4.0200e-03</t>
+          <t>3.2684e+03</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>5.7887e-01</t>
+          <t>4.3309e-01</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>4.2722e-03</t>
+          <t>3.2503e+03</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>5.7187e-01</t>
+          <t>4.2615e-01</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>4.0874e-03</t>
+          <t>3.3558e+03</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>5.6504e-01</t>
+          <t>4.1953e-01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>3.7599e-03</t>
+          <t>3.3109e+03</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>5.5778e-01</t>
+          <t>4.1298e-01</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>3.8280e-03</t>
+          <t>3.2625e+03</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>5.5039e-01</t>
+          <t>4.0635e-01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>3.9903e-03</t>
+          <t>3.2435e+03</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>5.4335e-01</t>
+          <t>3.9979e-01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>4.0129e-03</t>
+          <t>3.2516e+03</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>5.3634e-01</t>
+          <t>3.9322e-01</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>3.9342e-03</t>
+          <t>3.2871e+03</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>5.2942e-01</t>
+          <t>3.8681e-01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>3.7431e-03</t>
+          <t>3.2717e+03</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>5.2233e-01</t>
+          <t>3.8046e-01</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>3.7616e-03</t>
+          <t>3.2324e+03</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>5.1510e-01</t>
+          <t>3.7413e-01</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>3.9799e-03</t>
+          <t>3.2564e+03</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>5.0814e-01</t>
+          <t>3.6779e-01</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>3.9782e-03</t>
+          <t>3.1800e+03</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>5.0143e-01</t>
+          <t>3.6166e-01</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>3.7736e-03</t>
+          <t>3.1696e+03</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>4.9455e-01</t>
+          <t>3.5524e-01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>3.7295e-03</t>
+          <t>3.1911e+03</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>4.8751e-01</t>
+          <t>3.4923e-01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>3.7677e-03</t>
+          <t>2.9771e+03</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>4.8063e-01</t>
+          <t>3.4298e-01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>3.7458e-03</t>
+          <t>2.8137e+03</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>4.7377e-01</t>
+          <t>3.3650e-01</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>3.7416e-03</t>
+          <t>2.8513e+03</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>4.6694e-01</t>
+          <t>3.2988e-01</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>3.6498e-03</t>
+          <t>2.9279e+03</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>4.6017e-01</t>
+          <t>3.2370e-01</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>3.5790e-03</t>
+          <t>3.0586e+03</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>4.5323e-01</t>
+          <t>3.1747e-01</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>3.6700e-03</t>
+          <t>3.1221e+03</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>4.4641e-01</t>
+          <t>3.1185e-01</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>3.6815e-03</t>
+          <t>3.0726e+03</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>4.3979e-01</t>
+          <t>3.0592e-01</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>3.4978e-03</t>
+          <t>3.0205e+03</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>4.3309e-01</t>
+          <t>3.0032e-01</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>3.4741e-03</t>
+          <t>3.0154e+03</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>4.2615e-01</t>
+          <t>2.9438e-01</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>3.5920e-03</t>
+          <t>3.0003e+03</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>4.1953e-01</t>
+          <t>2.8894e-01</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>3.5379e-03</t>
+          <t>2.8149e+03</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>4.1298e-01</t>
+          <t>2.8310e-01</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>3.4800e-03</t>
+          <t>2.7281e+03</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>4.0635e-01</t>
+          <t>2.7729e-01</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>3.4560e-03</t>
+          <t>2.6867e+03</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>3.9979e-01</t>
+          <t>2.7134e-01</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>3.4627e-03</t>
+          <t>2.8239e+03</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>3.9322e-01</t>
+          <t>2.6558e-01</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>3.5006e-03</t>
+          <t>2.9043e+03</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>3.8681e-01</t>
+          <t>2.6024e-01</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>3.4808e-03</t>
+          <t>2.8899e+03</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>3.8046e-01</t>
+          <t>2.5487e-01</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>3.4341e-03</t>
+          <t>3.0156e+03</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>3.7413e-01</t>
+          <t>2.4966e-01</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>3.4590e-03</t>
+          <t>2.9600e+03</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>3.6779e-01</t>
+          <t>2.4478e-01</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>3.3710e-03</t>
+          <t>2.7252e+03</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>3.6166e-01</t>
+          <t>2.3957e-01</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>3.3574e-03</t>
+          <t>2.5546e+03</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>3.5524e-01</t>
+          <t>2.3422e-01</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>3.3796e-03</t>
+          <t>2.6559e+03</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>3.4923e-01</t>
+          <t>2.2865e-01</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>3.1389e-03</t>
+          <t>2.8567e+03</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>3.4298e-01</t>
+          <t>2.2383e-01</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>2.9563e-03</t>
+          <t>2.6552e+03</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>3.3650e-01</t>
+          <t>2.1899e-01</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>2.9963e-03</t>
+          <t>2.5487e+03</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>3.2988e-01</t>
+          <t>2.1377e-01</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>3.0795e-03</t>
+          <t>2.6026e+03</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>3.2370e-01</t>
+          <t>2.0881e-01</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>3.2229e-03</t>
+          <t>2.5667e+03</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>3.1747e-01</t>
+          <t>2.0394e-01</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>3.2919e-03</t>
+          <t>2.5282e+03</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>3.1185e-01</t>
+          <t>1.9905e-01</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>3.2355e-03</t>
+          <t>2.5999e+03</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>3.0592e-01</t>
+          <t>1.9426e-01</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>3.1765e-03</t>
+          <t>2.5776e+03</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>3.0032e-01</t>
+          <t>1.8977e-01</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>3.1695e-03</t>
+          <t>2.5475e+03</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>2.9438e-01</t>
+          <t>1.8509e-01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>3.1515e-03</t>
+          <t>2.5238e+03</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>2.8894e-01</t>
+          <t>1.8070e-01</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>2.9465e-03</t>
+          <t>2.3958e+03</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>2.8310e-01</t>
+          <t>1.7613e-01</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>2.8505e-03</t>
+          <t>2.3234e+03</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>2.7729e-01</t>
+          <t>1.7156e-01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>2.8043e-03</t>
+          <t>2.2725e+03</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>2.7134e-01</t>
+          <t>1.6696e-01</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>2.9530e-03</t>
+          <t>2.3750e+03</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>2.6558e-01</t>
+          <t>1.6244e-01</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>3.0400e-03</t>
+          <t>2.5556e+03</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>2.6024e-01</t>
+          <t>1.5836e-01</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>3.0232e-03</t>
+          <t>2.5477e+03</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>2.5487e-01</t>
+          <t>1.5450e-01</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>3.1600e-03</t>
+          <t>2.2451e+03</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>2.4966e-01</t>
+          <t>1.5057e-01</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>3.0981e-03</t>
+          <t>2.1517e+03</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>2.4478e-01</t>
+          <t>1.4605e-01</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>2.8410e-03</t>
+          <t>2.2319e+03</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>2.3957e-01</t>
+          <t>1.4206e-01</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>2.6553e-03</t>
+          <t>2.3002e+03</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>2.3422e-01</t>
+          <t>1.3798e-01</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>2.7642e-03</t>
+          <t>2.5129e+03</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>2.2865e-01</t>
+          <t>1.3439e-01</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>2.9815e-03</t>
+          <t>2.3252e+03</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>2.2383e-01</t>
+          <t>1.3100e-01</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>2.7620e-03</t>
+          <t>2.2055e+03</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>2.1899e-01</t>
+          <t>1.2711e-01</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>2.6463e-03</t>
+          <t>2.4861e+03</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>2.1377e-01</t>
+          <t>1.2361e-01</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>2.7037e-03</t>
+          <t>2.4575e+03</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>2.0881e-01</t>
+          <t>1.2057e-01</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>2.6644e-03</t>
+          <t>2.2305e+03</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>2.0394e-01</t>
+          <t>1.1715e-01</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>2.6223e-03</t>
+          <t>2.1595e+03</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>1.9905e-01</t>
+          <t>1.1376e-01</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>2.6989e-03</t>
+          <t>1.9431e+03</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>1.9426e-01</t>
+          <t>1.1033e-01</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>2.6743e-03</t>
+          <t>1.7818e+03</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>1.8977e-01</t>
+          <t>1.0651e-01</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>2.6414e-03</t>
+          <t>1.7708e+03</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>1.8509e-01</t>
+          <t>1.0278e-01</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>2.6154e-03</t>
+          <t>1.9265e+03</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>1.8070e-01</t>
+          <t>9.9152e-02</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>2.4777e-03</t>
+          <t>2.2249e+03</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>1.7613e-01</t>
+          <t>9.6153e-02</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>2.3999e-03</t>
+          <t>2.2513e+03</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>1.7156e-01</t>
+          <t>9.3441e-02</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>2.3453e-03</t>
+          <t>2.0103e+03</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>1.6696e-01</t>
+          <t>9.0641e-02</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>2.4542e-03</t>
+          <t>1.9504e+03</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>1.6244e-01</t>
+          <t>8.7547e-02</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>2.6470e-03</t>
+          <t>1.9832e+03</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>1.5836e-01</t>
+          <t>8.4788e-02</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>2.6381e-03</t>
+          <t>1.8584e+03</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>1.5450e-01</t>
+          <t>8.1942e-02</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>2.3147e-03</t>
+          <t>1.8642e+03</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>1.5057e-01</t>
+          <t>7.9048e-02</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>2.2152e-03</t>
+          <t>1.7567e+03</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>1.4605e-01</t>
+          <t>7.6406e-02</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>2.2999e-03</t>
+          <t>1.9778e+03</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>1.4206e-01</t>
+          <t>7.3401e-02</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>2.3721e-03</t>
+          <t>2.2869e+03</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>1.3798e-01</t>
+          <t>7.1498e-02</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>2.5987e-03</t>
+          <t>1.9256e+03</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>1.3439e-01</t>
+          <t>6.9153e-02</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>2.3982e-03</t>
+          <t>1.8270e+03</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>1.3100e-01</t>
+          <t>6.6743e-02</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>2.2708e-03</t>
+          <t>1.9357e+03</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>1.2711e-01</t>
+          <t>6.4343e-02</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>2.5690e-03</t>
+          <t>1.8442e+03</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>1.2361e-01</t>
+          <t>6.2321e-02</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>2.5382e-03</t>
+          <t>1.5623e+03</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>1.2057e-01</t>
+          <t>5.9867e-02</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>2.2965e-03</t>
+          <t>1.5766e+03</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>1.1715e-01</t>
+          <t>5.7346e-02</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>2.2210e-03</t>
+          <t>1.7129e+03</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>1.1376e-01</t>
+          <t>5.5130e-02</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>1.9926e-03</t>
+          <t>1.6560e+03</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>1.1033e-01</t>
+          <t>5.3101e-02</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>1.8232e-03</t>
+          <t>1.3883e+03</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>1.0651e-01</t>
+          <t>5.0910e-02</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>1.8114e-03</t>
+          <t>1.3907e+03</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>1.0278e-01</t>
+          <t>4.8365e-02</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>1.9745e-03</t>
+          <t>1.6456e+03</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>9.9152e-02</t>
+          <t>4.6411e-02</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>2.2890e-03</t>
+          <t>1.5116e+03</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>9.6153e-02</t>
+          <t>4.4634e-02</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>2.3168e-03</t>
+          <t>1.4691e+03</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>9.3441e-02</t>
+          <t>4.2538e-02</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>2.0621e-03</t>
+          <t>1.8403e+03</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>9.0641e-02</t>
+          <t>4.0844e-02</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>1.9990e-03</t>
+          <t>1.9517e+03</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>8.7547e-02</t>
+          <t>3.9544e-02</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>2.0333e-03</t>
+          <t>1.6904e+03</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>8.4788e-02</t>
+          <t>3.8084e-02</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>1.9021e-03</t>
+          <t>1.6446e+03</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>8.1942e-02</t>
+          <t>3.6531e-02</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>1.9081e-03</t>
+          <t>1.4905e+03</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>7.9048e-02</t>
+          <t>3.5120e-02</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>1.7956e-03</t>
+          <t>1.3159e+03</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>7.6406e-02</t>
+          <t>3.3418e-02</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>2.0270e-03</t>
+          <t>1.3218e+03</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>7.3401e-02</t>
+          <t>3.1806e-02</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>2.3528e-03</t>
+          <t>1.2765e+03</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>7.1498e-02</t>
+          <t>3.0272e-02</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>1.9719e-03</t>
+          <t>1.2976e+03</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>6.9153e-02</t>
+          <t>2.8712e-02</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>1.8686e-03</t>
+          <t>1.5116e+03</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>6.6743e-02</t>
+          <t>2.7377e-02</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>1.9824e-03</t>
+          <t>1.5916e+03</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>6.4343e-02</t>
+          <t>2.6300e-02</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>1.8864e-03</t>
+          <t>1.5098e+03</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>6.2321e-02</t>
+          <t>2.5160e-02</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>1.5924e-03</t>
+          <t>1.5753e+03</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>5.9867e-02</t>
+          <t>2.4076e-02</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>1.6072e-03</t>
+          <t>2.0426e+03</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>5.7346e-02</t>
+          <t>2.3108e-02</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>1.7490e-03</t>
+          <t>1.8621e+03</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>5.5130e-02</t>
+          <t>2.2503e-02</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>1.6896e-03</t>
+          <t>1.3898e+03</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>5.3101e-02</t>
+          <t>2.1447e-02</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>1.4118e-03</t>
+          <t>1.3565e+03</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>5.0910e-02</t>
+          <t>2.0455e-02</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>1.4142e-03</t>
+          <t>1.3730e+03</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>4.8365e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>1.6786e-03</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>4.6411e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>1.5393e-03</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>4.4634e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="inlineStr">
-        <is>
-          <t>1.4952e-03</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>4.2538e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="inlineStr">
-        <is>
-          <t>1.8814e-03</t>
-        </is>
-      </c>
-      <c r="B169" s="2" t="inlineStr">
-        <is>
-          <t>4.0844e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="inlineStr">
-        <is>
-          <t>1.9979e-03</t>
-        </is>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>3.9544e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>1.7249e-03</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>3.8084e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>1.6772e-03</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>3.6531e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>1.5171e-03</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>3.5120e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>1.3366e-03</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>3.3418e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>1.3426e-03</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>3.1806e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>1.2959e-03</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>3.0272e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="inlineStr">
-        <is>
-          <t>1.3176e-03</t>
-        </is>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>2.8712e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="inlineStr">
-        <is>
-          <t>1.5388e-03</t>
-        </is>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>2.7377e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="inlineStr">
-        <is>
-          <t>1.6217e-03</t>
-        </is>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>2.6300e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="inlineStr">
-        <is>
-          <t>1.5369e-03</t>
-        </is>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
-        <is>
-          <t>2.5160e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="inlineStr">
-        <is>
-          <t>1.6048e-03</t>
-        </is>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>2.4076e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>2.0924e-03</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>2.3108e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="inlineStr">
-        <is>
-          <t>1.9034e-03</t>
-        </is>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>2.2503e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>1.4126e-03</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>2.1447e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="inlineStr">
-        <is>
-          <t>1.3782e-03</t>
-        </is>
-      </c>
-      <c r="B185" s="2" t="inlineStr">
-        <is>
-          <t>2.0455e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>1.3952e-03</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
           <t>1.9450e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="inlineStr">
-        <is>
-          <t>1.2498e-03</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>1.8574e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>1.3575e-03</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>1.7468e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="inlineStr">
-        <is>
-          <t>1.9212e-03</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>1.6842e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>1.6496e-03</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>1.6229e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>1.3084e-03</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>1.5482e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="inlineStr">
-        <is>
-          <t>1.6149e-03</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>1.4639e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>2.1059e-03</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>1.4231e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>1.4275e-03</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>1.3667e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>1.3033e-03</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>1.2929e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="inlineStr">
-        <is>
-          <t>1.1656e-03</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>1.2332e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="inlineStr">
-        <is>
-          <t>1.1193e-03</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>1.1520e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>1.3825e-03</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>1.0967e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>1.3161e-03</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>1.0443e-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="inlineStr">
-        <is>
-          <t>1.3420e-03</t>
-        </is>
-      </c>
-      <c r="B200" s="2" t="inlineStr">
-        <is>
-          <t>9.8947e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>1.8723e-03</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>9.4445e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>1.4782e-03</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>9.1805e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>1.1167e-03</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>8.5927e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>1.2117e-03</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>8.1572e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>1.2201e-03</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>7.6895e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>1.5722e-03</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>7.3108e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>2.0096e-03</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>7.0459e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>1.4633e-03</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>6.8078e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>1.0373e-03</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>6.4075e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>9.0511e-04</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>5.9901e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="inlineStr">
-        <is>
-          <t>1.1188e-03</t>
-        </is>
-      </c>
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t>5.5412e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>5.6951e-03</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>5.3296e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="inlineStr">
-        <is>
-          <t>-3.8719e-02</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>5.3671e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="inlineStr">
-        <is>
-          <t>1.7232e-03</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>5.2845e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="inlineStr">
-        <is>
-          <t>1.4361e-03</t>
-        </is>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>4.9364e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="inlineStr">
-        <is>
-          <t>1.2769e-03</t>
-        </is>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>4.8132e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="inlineStr">
-        <is>
-          <t>1.0662e-03</t>
-        </is>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>4.4262e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>1.3280e-03</t>
-        </is>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>4.2615e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="inlineStr">
-        <is>
-          <t>6.4979e-04</t>
-        </is>
-      </c>
-      <c r="B219" s="2" t="inlineStr">
-        <is>
-          <t>3.9898e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="inlineStr">
-        <is>
-          <t>6.5259e-04</t>
-        </is>
-      </c>
-      <c r="B220" s="2" t="inlineStr">
-        <is>
-          <t>3.4742e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="inlineStr">
-        <is>
-          <t>1.0947e-03</t>
-        </is>
-      </c>
-      <c r="B221" s="2" t="inlineStr">
-        <is>
-          <t>3.3071e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="inlineStr">
-        <is>
-          <t>2.3825e-03</t>
-        </is>
-      </c>
-      <c r="B222" s="2" t="inlineStr">
-        <is>
-          <t>3.0711e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="inlineStr">
-        <is>
-          <t>2.2940e-03</t>
-        </is>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>3.1161e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="inlineStr">
-        <is>
-          <t>1.2187e-03</t>
-        </is>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>2.8711e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="inlineStr">
-        <is>
-          <t>-1.2119e-01</t>
-        </is>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>2.7984e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="inlineStr">
-        <is>
-          <t>1.8179e-03</t>
-        </is>
-      </c>
-      <c r="B226" s="2" t="inlineStr">
-        <is>
-          <t>2.8417e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="inlineStr">
-        <is>
-          <t>2.7350e-03</t>
-        </is>
-      </c>
-      <c r="B227" s="2" t="inlineStr">
-        <is>
-          <t>2.5767e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="inlineStr">
-        <is>
-          <t>-8.7865e-04</t>
-        </is>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>2.6982e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="inlineStr">
-        <is>
-          <t>-2.7035e-03</t>
-        </is>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>2.9168e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="inlineStr">
-        <is>
-          <t>1.2688e-03</t>
-        </is>
-      </c>
-      <c r="B230" s="2" t="inlineStr">
-        <is>
-          <t>2.7950e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="inlineStr">
-        <is>
-          <t>8.8713e-04</t>
-        </is>
-      </c>
-      <c r="B231" s="2" t="inlineStr">
-        <is>
-          <t>2.6183e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="inlineStr">
-        <is>
-          <t>6.2314e-04</t>
-        </is>
-      </c>
-      <c r="B232" s="2" t="inlineStr">
-        <is>
-          <t>2.4081e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="inlineStr">
-        <is>
-          <t>5.3074e-04</t>
-        </is>
-      </c>
-      <c r="B233" s="2" t="inlineStr">
-        <is>
-          <t>2.1233e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="inlineStr">
-        <is>
-          <t>8.7232e-04</t>
-        </is>
-      </c>
-      <c r="B234" s="2" t="inlineStr">
-        <is>
-          <t>1.8998e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="inlineStr">
-        <is>
-          <t>9.6803e-04</t>
-        </is>
-      </c>
-      <c r="B235" s="2" t="inlineStr">
-        <is>
-          <t>1.8381e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="inlineStr">
-        <is>
-          <t>8.6508e-04</t>
-        </is>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>1.6490e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="inlineStr">
-        <is>
-          <t>1.8539e-02</t>
-        </is>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>1.5885e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="inlineStr">
-        <is>
-          <t>1.7996e-03</t>
-        </is>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>1.6203e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="inlineStr">
-        <is>
-          <t>6.4214e-04</t>
-        </is>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>1.4609e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="inlineStr">
-        <is>
-          <t>5.9350e-04</t>
-        </is>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>1.3282e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="inlineStr">
-        <is>
-          <t>7.5880e-04</t>
-        </is>
-      </c>
-      <c r="B241" s="2" t="inlineStr">
-        <is>
-          <t>1.1747e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="inlineStr">
-        <is>
-          <t>1.3538e-03</t>
-        </is>
-      </c>
-      <c r="B242" s="2" t="inlineStr">
-        <is>
-          <t>1.1273e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="inlineStr">
-        <is>
-          <t>2.1020e-03</t>
-        </is>
-      </c>
-      <c r="B243" s="2" t="inlineStr">
-        <is>
-          <t>1.0609e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="inlineStr">
-        <is>
-          <t>6.0512e-03</t>
-        </is>
-      </c>
-      <c r="B244" s="2" t="inlineStr">
-        <is>
-          <t>1.0540e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="inlineStr">
-        <is>
-          <t>6.7463e-04</t>
-        </is>
-      </c>
-      <c r="B245" s="2" t="inlineStr">
-        <is>
-          <t>1.0277e-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="inlineStr">
-        <is>
-          <t>3.8223e-04</t>
-        </is>
-      </c>
-      <c r="B246" s="2" t="inlineStr">
-        <is>
-          <t>8.5768e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="inlineStr">
-        <is>
-          <t>1.3450e-03</t>
-        </is>
-      </c>
-      <c r="B247" s="2" t="inlineStr">
-        <is>
-          <t>7.4611e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="inlineStr">
-        <is>
-          <t>6.5042e-04</t>
-        </is>
-      </c>
-      <c r="B248" s="2" t="inlineStr">
-        <is>
-          <t>7.8192e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="inlineStr">
-        <is>
-          <t>3.0237e-04</t>
-        </is>
-      </c>
-      <c r="B249" s="2" t="inlineStr">
-        <is>
-          <t>5.9149e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="inlineStr">
-        <is>
-          <t>4.8623e-04</t>
-        </is>
-      </c>
-      <c r="B250" s="2" t="inlineStr">
-        <is>
-          <t>5.3820e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="inlineStr">
-        <is>
-          <t>6.6297e-03</t>
-        </is>
-      </c>
-      <c r="B251" s="2" t="inlineStr">
-        <is>
-          <t>4.5122e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="inlineStr">
-        <is>
-          <t>3.7975e-04</t>
-        </is>
-      </c>
-      <c r="B252" s="2" t="inlineStr">
-        <is>
-          <t>5.2476e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="inlineStr">
-        <is>
-          <t>9.6062e-05</t>
-        </is>
-      </c>
-      <c r="B253" s="2" t="inlineStr">
-        <is>
-          <t>2.7773e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="inlineStr">
-        <is>
-          <t>1.7253e-04</t>
-        </is>
-      </c>
-      <c r="B254" s="2" t="inlineStr">
-        <is>
-          <t>1.7131e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="inlineStr">
-        <is>
-          <t>-1.3717e-03</t>
-        </is>
-      </c>
-      <c r="B255" s="2" t="inlineStr">
-        <is>
-          <t>1.5544e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="inlineStr">
-        <is>
-          <t>-8.0497e-04</t>
-        </is>
-      </c>
-      <c r="B256" s="2" t="inlineStr">
-        <is>
-          <t>1.8325e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="inlineStr">
-        <is>
-          <t>1.3368e-04</t>
-        </is>
-      </c>
-      <c r="B257" s="2" t="inlineStr">
-        <is>
-          <t>1.8092e-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="inlineStr">
-        <is>
-          <t>2.4422e-05</t>
-        </is>
-      </c>
-      <c r="B258" s="2" t="inlineStr">
-        <is>
-          <t>1.7150e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="inlineStr">
-        <is>
-          <t>-7.3326e-05</t>
-        </is>
-      </c>
-      <c r="B259" s="2" t="inlineStr">
-        <is>
-          <t>9.5636e-05</t>
         </is>
       </c>
     </row>

--- a/Lifetime_SRH_X.xlsx
+++ b/Lifetime_SRH_X.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,10 @@
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -464,1972 +468,5912 @@
           <t>X(n/p)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>m1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>b1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>5.9776e+03</t>
+          <t>1.4065e+03</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>8.2462e-01</t>
+          <t>6.8078e-03</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>5.7281e+03</t>
+          <t>1.4077e+03</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>8.1825e-01</t>
+          <t>7.0459e-03</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>5.5698e+03</t>
+          <t>1.4090e+03</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>8.1185e-01</t>
+          <t>7.3108e-03</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>5.3662e+03</t>
+          <t>1.4109e+03</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>8.0543e-01</t>
+          <t>7.6895e-03</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>5.1406e+03</t>
+          <t>1.4132e+03</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>7.9893e-01</t>
+          <t>8.1572e-03</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>5.0195e+03</t>
+          <t>1.4153e+03</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>7.9239e-01</t>
+          <t>8.5927e-03</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>4.9878e+03</t>
+          <t>1.4182e+03</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>7.8582e-01</t>
+          <t>9.1805e-03</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>4.9519e+03</t>
+          <t>1.4195e+03</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>7.7928e-01</t>
+          <t>9.4445e-03</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>4.7600e+03</t>
+          <t>1.4217e+03</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>7.7270e-01</t>
+          <t>9.8947e-03</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>4.7126e+03</t>
+          <t>1.4244e+03</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>7.6600e-01</t>
+          <t>1.0443e-02</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>4.6728e+03</t>
+          <t>1.4270e+03</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>7.5941e-01</t>
+          <t>1.0967e-02</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>4.5576e+03</t>
+          <t>1.4297e+03</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>7.5267e-01</t>
+          <t>1.1520e-02</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>4.6122e+03</t>
+          <t>1.4337e+03</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>7.4598e-01</t>
+          <t>1.2332e-02</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>4.4681e+03</t>
+          <t>1.4366e+03</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>7.3932e-01</t>
+          <t>1.2929e-02</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>4.2951e+03</t>
+          <t>1.4402e+03</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>7.3247e-01</t>
+          <t>1.3667e-02</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>4.3083e+03</t>
+          <t>1.4430e+03</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>7.2561e-01</t>
+          <t>1.4231e-02</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>4.2467e+03</t>
+          <t>1.4450e+03</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>7.1880e-01</t>
+          <t>1.4639e-02</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>4.1786e+03</t>
+          <t>1.4491e+03</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>7.1186e-01</t>
+          <t>1.5482e-02</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>4.2581e+03</t>
+          <t>1.4527e+03</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>7.0497e-01</t>
+          <t>1.6229e-02</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>4.2732e+03</t>
+          <t>1.4557e+03</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>6.9816e-01</t>
+          <t>1.6842e-02</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>4.0963e+03</t>
+          <t>1.4588e+03</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>6.9131e-01</t>
+          <t>1.7468e-02</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>3.9994e+03</t>
+          <t>1.4642e+03</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>6.8424e-01</t>
+          <t>1.8574e-02</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>4.0692e+03</t>
+          <t>1.4685e+03</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>6.7727e-01</t>
+          <t>1.9450e-02</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>4.1183e+03</t>
+          <t>1.4734e+03</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>6.7033e-01</t>
+          <t>2.0455e-02</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>3.9863e+03</t>
+          <t>1.4783e+03</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>6.6345e-01</t>
+          <t>2.1447e-02</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>3.8532e+03</t>
+          <t>1.4834e+03</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>6.5630e-01</t>
+          <t>2.2503e-02</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>4.0443e+03</t>
+          <t>1.4864e+03</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>6.4922e-01</t>
+          <t>2.3108e-02</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>4.0151e+03</t>
+          <t>1.4911e+03</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>6.4245e-01</t>
+          <t>2.4076e-02</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>3.8305e+03</t>
+          <t>1.4964e+03</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>6.3532e-01</t>
+          <t>2.5160e-02</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>3.8705e+03</t>
+          <t>1.5019e+03</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>6.2826e-01</t>
+          <t>2.6300e-02</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>3.9067e+03</t>
+          <t>1.5072e+03</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>6.2123e-01</t>
+          <t>2.7377e-02</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>3.9219e+03</t>
+          <t>1.5137e+03</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>6.1427e-01</t>
+          <t>2.8712e-02</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>3.8884e+03</t>
+          <t>1.5212e+03</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>6.0730e-01</t>
+          <t>3.0272e-02</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>3.8360e+03</t>
+          <t>1.5287e+03</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>6.0031e-01</t>
+          <t>3.1806e-02</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>3.7654e+03</t>
+          <t>1.5365e+03</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>5.9328e-01</t>
+          <t>3.3418e-02</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>3.6122e+03</t>
+          <t>1.5448e+03</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>5.8619e-01</t>
+          <t>3.5120e-02</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>3.6263e+03</t>
+          <t>1.5516e+03</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>5.7887e-01</t>
+          <t>3.6531e-02</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>3.8367e+03</t>
+          <t>1.5592e+03</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>5.7187e-01</t>
+          <t>3.8084e-02</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>3.6927e+03</t>
+          <t>1.5662e+03</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>5.6504e-01</t>
+          <t>3.9544e-02</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>3.4284e+03</t>
+          <t>1.5725e+03</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>5.5778e-01</t>
+          <t>4.0844e-02</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>3.4900e+03</t>
+          <t>1.5807e+03</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>5.5039e-01</t>
+          <t>4.2538e-02</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>3.6296e+03</t>
+          <t>1.5909e+03</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>5.4335e-01</t>
+          <t>4.4634e-02</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>3.6533e+03</t>
+          <t>1.5994e+03</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>5.3634e-01</t>
+          <t>4.6411e-02</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>3.5926e+03</t>
+          <t>1.6089e+03</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>5.2942e-01</t>
+          <t>4.8365e-02</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>3.4368e+03</t>
+          <t>1.6211e+03</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>5.2233e-01</t>
+          <t>5.0910e-02</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>3.4566e+03</t>
+          <t>1.6317e+03</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>5.1510e-01</t>
+          <t>5.3101e-02</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>3.6445e+03</t>
+          <t>1.6415e+03</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>5.0814e-01</t>
+          <t>5.5130e-02</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>3.6472e+03</t>
+          <t>1.6521e+03</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>5.0143e-01</t>
+          <t>5.7346e-02</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>3.4783e+03</t>
+          <t>1.6642e+03</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>4.9455e-01</t>
+          <t>5.9867e-02</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>3.4444e+03</t>
+          <t>1.6760e+03</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>4.8751e-01</t>
+          <t>6.2321e-02</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>3.4805e+03</t>
+          <t>1.6857e+03</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>4.8063e-01</t>
+          <t>6.4343e-02</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>3.4653e+03</t>
+          <t>1.6972e+03</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>4.7377e-01</t>
+          <t>6.6743e-02</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>3.4650e+03</t>
+          <t>1.7087e+03</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>4.6694e-01</t>
+          <t>6.9153e-02</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>3.3892e+03</t>
+          <t>1.7199e+03</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>4.6017e-01</t>
+          <t>7.1498e-02</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>3.3310e+03</t>
+          <t>1.7290e+03</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>4.5323e-01</t>
+          <t>7.3401e-02</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>3.4127e+03</t>
+          <t>1.7433e+03</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>4.4641e-01</t>
+          <t>7.6406e-02</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>3.4255e+03</t>
+          <t>1.7559e+03</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>4.3979e-01</t>
+          <t>7.9048e-02</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>3.2684e+03</t>
+          <t>1.7697e+03</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>4.3309e-01</t>
+          <t>8.1942e-02</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>3.2503e+03</t>
+          <t>1.7832e+03</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>4.2615e-01</t>
+          <t>8.4788e-02</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>3.3558e+03</t>
+          <t>1.7963e+03</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>4.1953e-01</t>
+          <t>8.7547e-02</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>3.3109e+03</t>
+          <t>1.8110e+03</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>4.1298e-01</t>
+          <t>9.0641e-02</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>3.2625e+03</t>
+          <t>1.8243e+03</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>4.0635e-01</t>
+          <t>9.3441e-02</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>3.2435e+03</t>
+          <t>1.8371e+03</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>3.9979e-01</t>
+          <t>9.6153e-02</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>3.2516e+03</t>
+          <t>1.8513e+03</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>3.9322e-01</t>
+          <t>9.9152e-02</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>3.2871e+03</t>
+          <t>1.8685e+03</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>3.8681e-01</t>
+          <t>1.0278e-01</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>3.2717e+03</t>
+          <t>1.8861e+03</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>3.8046e-01</t>
+          <t>1.0651e-01</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>3.2324e+03</t>
+          <t>1.9041e+03</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>3.7413e-01</t>
+          <t>1.1033e-01</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>3.2564e+03</t>
+          <t>1.9202e+03</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>3.6779e-01</t>
+          <t>1.1376e-01</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>3.1800e+03</t>
+          <t>1.9361e+03</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>3.6166e-01</t>
+          <t>1.1715e-01</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>3.1696e+03</t>
+          <t>1.9522e+03</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>3.5524e-01</t>
+          <t>1.2057e-01</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>3.1911e+03</t>
+          <t>1.9665e+03</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>3.4923e-01</t>
+          <t>1.2361e-01</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>2.9771e+03</t>
+          <t>1.9828e+03</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>3.4298e-01</t>
+          <t>1.2711e-01</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2.8137e+03</t>
+          <t>2.0010e+03</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>3.3650e-01</t>
+          <t>1.3100e-01</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2.8513e+03</t>
+          <t>2.0168e+03</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>3.2988e-01</t>
+          <t>1.3439e-01</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>2.9279e+03</t>
+          <t>2.0336e+03</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>3.2370e-01</t>
+          <t>1.3798e-01</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>3.0586e+03</t>
+          <t>2.0526e+03</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>3.1747e-01</t>
+          <t>1.4206e-01</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>3.1221e+03</t>
+          <t>2.0712e+03</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>3.1185e-01</t>
+          <t>1.4605e-01</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>3.0726e+03</t>
+          <t>2.0922e+03</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>3.0592e-01</t>
+          <t>1.5057e-01</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>3.0205e+03</t>
+          <t>2.1105e+03</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>3.0032e-01</t>
+          <t>1.5450e-01</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>3.0154e+03</t>
+          <t>2.1284e+03</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>2.9438e-01</t>
+          <t>1.5836e-01</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>3.0003e+03</t>
+          <t>2.1474e+03</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>2.8894e-01</t>
+          <t>1.6244e-01</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>2.8149e+03</t>
+          <t>2.1685e+03</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>2.8310e-01</t>
+          <t>1.6696e-01</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>2.7281e+03</t>
+          <t>2.1901e+03</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>2.7729e-01</t>
+          <t>1.7156e-01</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>2.6867e+03</t>
+          <t>2.2117e+03</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>2.7134e-01</t>
+          <t>1.7613e-01</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>2.8239e+03</t>
+          <t>2.2336e+03</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>2.6558e-01</t>
+          <t>1.8070e-01</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>2.9043e+03</t>
+          <t>2.2550e+03</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>2.6024e-01</t>
+          <t>1.8509e-01</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>2.8899e+03</t>
+          <t>2.2784e+03</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>2.5487e-01</t>
+          <t>1.8977e-01</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>3.0156e+03</t>
+          <t>2.3012e+03</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>2.4966e-01</t>
+          <t>1.9426e-01</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>2.9600e+03</t>
+          <t>2.3231e+03</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>2.4478e-01</t>
+          <t>1.9905e-01</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>2.7252e+03</t>
+          <t>2.3431e+03</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>2.3957e-01</t>
+          <t>2.0394e-01</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>2.5546e+03</t>
+          <t>2.3629e+03</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>2.3422e-01</t>
+          <t>2.0881e-01</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>2.6559e+03</t>
+          <t>2.3832e+03</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>2.2865e-01</t>
+          <t>2.1377e-01</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>2.8567e+03</t>
+          <t>2.4048e+03</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>2.2383e-01</t>
+          <t>2.1899e-01</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>2.6552e+03</t>
+          <t>2.4245e+03</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>2.1899e-01</t>
+          <t>2.2383e-01</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>2.5487e+03</t>
+          <t>2.4445e+03</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>2.1377e-01</t>
+          <t>2.2865e-01</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>2.6026e+03</t>
+          <t>2.4673e+03</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>2.0881e-01</t>
+          <t>2.3422e-01</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>2.5667e+03</t>
+          <t>2.4895e+03</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>2.0394e-01</t>
+          <t>2.3957e-01</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>2.5282e+03</t>
+          <t>2.5109e+03</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>1.9905e-01</t>
+          <t>2.4478e-01</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>2.5999e+03</t>
+          <t>2.5309e+03</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>1.9426e-01</t>
+          <t>2.4966e-01</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>2.5776e+03</t>
+          <t>2.5524e+03</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>1.8977e-01</t>
+          <t>2.5487e-01</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>2.5475e+03</t>
+          <t>2.5743e+03</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>1.8509e-01</t>
+          <t>2.6024e-01</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>2.5238e+03</t>
+          <t>2.5960e+03</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>1.8070e-01</t>
+          <t>2.6558e-01</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>2.3958e+03</t>
+          <t>2.6195e+03</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>1.7613e-01</t>
+          <t>2.7134e-01</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>2.3234e+03</t>
+          <t>2.6436e+03</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>1.7156e-01</t>
+          <t>2.7729e-01</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>2.2725e+03</t>
+          <t>2.6674e+03</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>1.6696e-01</t>
+          <t>2.8310e-01</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>2.3750e+03</t>
+          <t>2.6907e+03</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>1.6244e-01</t>
+          <t>2.8894e-01</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>2.5556e+03</t>
+          <t>2.7126e+03</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>1.5836e-01</t>
+          <t>2.9438e-01</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>2.5477e+03</t>
+          <t>2.7359e+03</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>1.5450e-01</t>
+          <t>3.0032e-01</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>2.2451e+03</t>
+          <t>2.7580e+03</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>1.5057e-01</t>
+          <t>3.0592e-01</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>2.1517e+03</t>
+          <t>2.7812e+03</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>1.4605e-01</t>
+          <t>3.1185e-01</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>2.2319e+03</t>
+          <t>2.8029e+03</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>1.4206e-01</t>
+          <t>3.1747e-01</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>2.3002e+03</t>
+          <t>2.8272e+03</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>1.3798e-01</t>
+          <t>3.2370e-01</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>2.5129e+03</t>
+          <t>2.8506e+03</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>1.3439e-01</t>
+          <t>3.2988e-01</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>2.3252e+03</t>
+          <t>2.8757e+03</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>1.3100e-01</t>
+          <t>3.3650e-01</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>2.2055e+03</t>
+          <t>2.8996e+03</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>1.2711e-01</t>
+          <t>3.4298e-01</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>2.4861e+03</t>
+          <t>2.9227e+03</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>1.2361e-01</t>
+          <t>3.4923e-01</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>2.4575e+03</t>
+          <t>2.9445e+03</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>1.2057e-01</t>
+          <t>3.5524e-01</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>2.2305e+03</t>
+          <t>2.9678e+03</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>1.1715e-01</t>
+          <t>3.6166e-01</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>2.1595e+03</t>
+          <t>2.9898e+03</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>1.1376e-01</t>
+          <t>3.6779e-01</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>1.9431e+03</t>
+          <t>3.0123e+03</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>1.1033e-01</t>
+          <t>3.7413e-01</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>1.7818e+03</t>
+          <t>3.0347e+03</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>1.0651e-01</t>
+          <t>3.8046e-01</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>1.7708e+03</t>
+          <t>3.0569e+03</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>1.0278e-01</t>
+          <t>3.8681e-01</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>1.9265e+03</t>
+          <t>3.0792e+03</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>9.9152e-02</t>
+          <t>3.9322e-01</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>2.2249e+03</t>
+          <t>3.1019e+03</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>9.6153e-02</t>
+          <t>3.9979e-01</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>2.2513e+03</t>
+          <t>3.1244e+03</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>9.3441e-02</t>
+          <t>4.0635e-01</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>2.0103e+03</t>
+          <t>3.1472e+03</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>9.0641e-02</t>
+          <t>4.1298e-01</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>1.9504e+03</t>
+          <t>3.1694e+03</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>8.7547e-02</t>
+          <t>4.1953e-01</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>1.9832e+03</t>
+          <t>3.1920e+03</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>8.4788e-02</t>
+          <t>4.2615e-01</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>1.8584e+03</t>
+          <t>3.2154e+03</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>8.1942e-02</t>
+          <t>4.3309e-01</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>1.8642e+03</t>
+          <t>3.2380e+03</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>7.9048e-02</t>
+          <t>4.3979e-01</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>1.7567e+03</t>
+          <t>3.2602e+03</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>7.6406e-02</t>
+          <t>4.4641e-01</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>1.9778e+03</t>
+          <t>3.2831e+03</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>7.3401e-02</t>
+          <t>4.5323e-01</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>2.2869e+03</t>
+          <t>3.3061e+03</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>7.1498e-02</t>
+          <t>4.6017e-01</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>1.9256e+03</t>
+          <t>3.3285e+03</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>6.9153e-02</t>
+          <t>4.6694e-01</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>1.8270e+03</t>
+          <t>3.3510e+03</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>6.6743e-02</t>
+          <t>4.7377e-01</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>1.9357e+03</t>
+          <t>3.3736e+03</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>6.4343e-02</t>
+          <t>4.8063e-01</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>1.8442e+03</t>
+          <t>3.3962e+03</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>6.2321e-02</t>
+          <t>4.8751e-01</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>1.5623e+03</t>
+          <t>3.4193e+03</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>5.9867e-02</t>
+          <t>4.9455e-01</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>1.5766e+03</t>
+          <t>3.4419e+03</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>5.7346e-02</t>
+          <t>5.0143e-01</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>1.7129e+03</t>
+          <t>3.4639e+03</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>5.5130e-02</t>
+          <t>5.0814e-01</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>1.6560e+03</t>
+          <t>3.4867e+03</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>5.3101e-02</t>
+          <t>5.1510e-01</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>1.3883e+03</t>
+          <t>3.5104e+03</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>5.0910e-02</t>
+          <t>5.2233e-01</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>1.3907e+03</t>
+          <t>3.5336e+03</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>4.8365e-02</t>
+          <t>5.2942e-01</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>1.6456e+03</t>
+          <t>3.5563e+03</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>4.6411e-02</t>
+          <t>5.3634e-01</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>1.5116e+03</t>
+          <t>3.5793e+03</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>4.4634e-02</t>
+          <t>5.4335e-01</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>1.4691e+03</t>
+          <t>3.6023e+03</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>4.2538e-02</t>
+          <t>5.5039e-01</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>1.8403e+03</t>
+          <t>3.6265e+03</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>4.0844e-02</t>
+          <t>5.5778e-01</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>1.9517e+03</t>
+          <t>3.6503e+03</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>3.9544e-02</t>
+          <t>5.6504e-01</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>1.6904e+03</t>
+          <t>3.6727e+03</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>3.8084e-02</t>
+          <t>5.7187e-01</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>1.6446e+03</t>
+          <t>3.6956e+03</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>3.6531e-02</t>
+          <t>5.7887e-01</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>1.4905e+03</t>
+          <t>3.7195e+03</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>3.5120e-02</t>
+          <t>5.8619e-01</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>1.3159e+03</t>
+          <t>3.7427e+03</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>3.3418e-02</t>
+          <t>5.9328e-01</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>1.3218e+03</t>
+          <t>3.7657e+03</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>3.1806e-02</t>
+          <t>6.0031e-01</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>1.2765e+03</t>
+          <t>3.7885e+03</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>3.0272e-02</t>
+          <t>6.0730e-01</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>1.2976e+03</t>
+          <t>3.8113e+03</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>2.8712e-02</t>
+          <t>6.1427e-01</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>1.5116e+03</t>
+          <t>3.8340e+03</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>2.7377e-02</t>
+          <t>6.2123e-01</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>1.5916e+03</t>
+          <t>3.8569e+03</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>2.6300e-02</t>
+          <t>6.2826e-01</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>1.5098e+03</t>
+          <t>3.8800e+03</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>2.5160e-02</t>
+          <t>6.3532e-01</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>1.5753e+03</t>
+          <t>3.9033e+03</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>2.4076e-02</t>
+          <t>6.4245e-01</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>2.0426e+03</t>
+          <t>3.9254e+03</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>2.3108e-02</t>
+          <t>6.4922e-01</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>1.8621e+03</t>
+          <t>3.9484e+03</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>2.2503e-02</t>
+          <t>6.5630e-01</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>1.3898e+03</t>
+          <t>3.9717e+03</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>2.1447e-02</t>
+          <t>6.6345e-01</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>1.3565e+03</t>
+          <t>3.9941e+03</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>2.0455e-02</t>
+          <t>6.7033e-01</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>1.3730e+03</t>
+          <t>4.0167e+03</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>1.9450e-02</t>
+          <t>6.7727e-01</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>4.0395e+03</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>6.8424e-01</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>4.0624e+03</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>6.9131e-01</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>4.0847e+03</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>6.9816e-01</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>4.1069e+03</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>7.0497e-01</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>4.1293e+03</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>7.1186e-01</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>4.1518e+03</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>7.1880e-01</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>4.1739e+03</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>7.2561e-01</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>4.1962e+03</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>7.3247e-01</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>4.2184e+03</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>7.3932e-01</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>4.2400e+03</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>7.4598e-01</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>4.2617e+03</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>7.5267e-01</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>4.2836e+03</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>7.5941e-01</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>4.3049e+03</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>7.6600e-01</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>4.3266e+03</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>7.7270e-01</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>4.3479e+03</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>7.7928e-01</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>4.3691e+03</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>7.8582e-01</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>4.3903e+03</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>7.9239e-01</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>4.4115e+03</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>7.9893e-01</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>4.4325e+03</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>8.0543e-01</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>4.4533e+03</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>8.1185e-01</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>8.2417e+03</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>1.6920e+03</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>3.0462e+03</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>6.9397e+03</t>
         </is>
       </c>
     </row>
